--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efna5-Ephb6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efna5-Ephb6.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="F2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G2">
-        <v>0.071323</v>
+        <v>0.2708946666666667</v>
       </c>
       <c r="H2">
-        <v>0.213969</v>
+        <v>0.812684</v>
       </c>
       <c r="I2">
-        <v>0.0483071206658679</v>
+        <v>0.1616296696421007</v>
       </c>
       <c r="J2">
-        <v>0.0483071206658679</v>
+        <v>0.1616296696421007</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.09912533333333334</v>
+        <v>0.08324533333333334</v>
       </c>
       <c r="N2">
-        <v>0.297376</v>
+        <v>0.249736</v>
       </c>
       <c r="O2">
-        <v>0.04204777601064202</v>
+        <v>0.05078606388889115</v>
       </c>
       <c r="P2">
-        <v>0.04204777601064203</v>
+        <v>0.05078606388889115</v>
       </c>
       <c r="Q2">
-        <v>0.007069916149333334</v>
+        <v>0.02255071682488889</v>
       </c>
       <c r="R2">
-        <v>0.06362924534400001</v>
+        <v>0.202956451424</v>
       </c>
       <c r="S2">
-        <v>0.00203120698947747</v>
+        <v>0.008208534728784094</v>
       </c>
       <c r="T2">
-        <v>0.00203120698947747</v>
+        <v>0.008208534728784094</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
         <v>1</v>
       </c>
-      <c r="F3">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G3">
-        <v>0.071323</v>
+        <v>0.2708946666666667</v>
       </c>
       <c r="H3">
-        <v>0.213969</v>
+        <v>0.812684</v>
       </c>
       <c r="I3">
-        <v>0.0483071206658679</v>
+        <v>0.1616296696421007</v>
       </c>
       <c r="J3">
-        <v>0.0483071206658679</v>
+        <v>0.1616296696421007</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>1.374949</v>
       </c>
       <c r="O3">
-        <v>0.1944122847104549</v>
+        <v>0.2796082573516313</v>
       </c>
       <c r="P3">
-        <v>0.1944122847104549</v>
+        <v>0.2796082573516313</v>
       </c>
       <c r="Q3">
-        <v>0.03268849584233333</v>
+        <v>0.1241554503462222</v>
       </c>
       <c r="R3">
-        <v>0.294196462581</v>
+        <v>1.117399053116</v>
       </c>
       <c r="S3">
-        <v>0.009391497696435011</v>
+        <v>0.04519299026494763</v>
       </c>
       <c r="T3">
-        <v>0.009391497696435012</v>
+        <v>0.04519299026494762</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="F4">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G4">
-        <v>0.071323</v>
+        <v>0.2708946666666667</v>
       </c>
       <c r="H4">
-        <v>0.213969</v>
+        <v>0.812684</v>
       </c>
       <c r="I4">
-        <v>0.0483071206658679</v>
+        <v>0.1616296696421007</v>
       </c>
       <c r="J4">
-        <v>0.0483071206658679</v>
+        <v>0.1616296696421007</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.800003666666667</v>
+        <v>1.097575666666667</v>
       </c>
       <c r="N4">
-        <v>5.400011</v>
+        <v>3.292727</v>
       </c>
       <c r="O4">
-        <v>0.763539939278903</v>
+        <v>0.6696056787594775</v>
       </c>
       <c r="P4">
-        <v>0.7635399392789031</v>
+        <v>0.6696056787594775</v>
       </c>
       <c r="Q4">
-        <v>0.1283816615176667</v>
+        <v>0.2973273943631111</v>
       </c>
       <c r="R4">
-        <v>1.155434953659</v>
+        <v>2.675946549268</v>
       </c>
       <c r="S4">
-        <v>0.03688441597995542</v>
+        <v>0.1082281446483689</v>
       </c>
       <c r="T4">
-        <v>0.03688441597995543</v>
+        <v>0.1082281446483689</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>3.174364</v>
       </c>
       <c r="I5">
-        <v>0.7166663618813337</v>
+        <v>0.6313295261673385</v>
       </c>
       <c r="J5">
-        <v>0.7166663618813337</v>
+        <v>0.6313295261673384</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.09912533333333334</v>
+        <v>0.08324533333333334</v>
       </c>
       <c r="N5">
-        <v>0.297376</v>
+        <v>0.249736</v>
       </c>
       <c r="O5">
-        <v>0.04204777601064202</v>
+        <v>0.05078606388889115</v>
       </c>
       <c r="P5">
-        <v>0.04204777601064203</v>
+        <v>0.05078606388889115</v>
       </c>
       <c r="Q5">
-        <v>0.1048866298737778</v>
+        <v>0.08808366310044446</v>
       </c>
       <c r="R5">
-        <v>0.943979668864</v>
+        <v>0.7927529679040001</v>
       </c>
       <c r="S5">
-        <v>0.03013422665874804</v>
+        <v>0.03206274165087783</v>
       </c>
       <c r="T5">
-        <v>0.03013422665874804</v>
+        <v>0.03206274165087782</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3.174364</v>
       </c>
       <c r="I6">
-        <v>0.7166663618813337</v>
+        <v>0.6313295261673385</v>
       </c>
       <c r="J6">
-        <v>0.7166663618813337</v>
+        <v>0.6313295261673384</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,22 +806,22 @@
         <v>1.374949</v>
       </c>
       <c r="O6">
-        <v>0.1944122847104549</v>
+        <v>0.2796082573516313</v>
       </c>
       <c r="P6">
-        <v>0.1944122847104549</v>
+        <v>0.2796082573516313</v>
       </c>
       <c r="Q6">
-        <v>0.4849542897151111</v>
+        <v>0.4849542897151112</v>
       </c>
       <c r="R6">
-        <v>4.364588607436</v>
+        <v>4.364588607436001</v>
       </c>
       <c r="S6">
-        <v>0.1393287447884798</v>
+        <v>0.1765249486262806</v>
       </c>
       <c r="T6">
-        <v>0.1393287447884798</v>
+        <v>0.1765249486262806</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3.174364</v>
       </c>
       <c r="I7">
-        <v>0.7166663618813337</v>
+        <v>0.6313295261673385</v>
       </c>
       <c r="J7">
-        <v>0.7166663618813337</v>
+        <v>0.6313295261673384</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.800003666666667</v>
+        <v>1.097575666666667</v>
       </c>
       <c r="N7">
-        <v>5.400011</v>
+        <v>3.292727</v>
       </c>
       <c r="O7">
-        <v>0.763539939278903</v>
+        <v>0.6696056787594775</v>
       </c>
       <c r="P7">
-        <v>0.7635399392789031</v>
+        <v>0.6696056787594775</v>
       </c>
       <c r="Q7">
-        <v>1.904622279778222</v>
+        <v>1.161368227847556</v>
       </c>
       <c r="R7">
-        <v>17.141600518004</v>
+        <v>10.452314050628</v>
       </c>
       <c r="S7">
-        <v>0.5472033904341058</v>
+        <v>0.4227418358901801</v>
       </c>
       <c r="T7">
-        <v>0.5472033904341059</v>
+        <v>0.4227418358901799</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>1.041014</v>
       </c>
       <c r="I8">
-        <v>0.2350265174527984</v>
+        <v>0.2070408041905609</v>
       </c>
       <c r="J8">
-        <v>0.2350265174527984</v>
+        <v>0.2070408041905609</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.09912533333333334</v>
+        <v>0.08324533333333334</v>
       </c>
       <c r="N8">
-        <v>0.297376</v>
+        <v>0.249736</v>
       </c>
       <c r="O8">
-        <v>0.04204777601064202</v>
+        <v>0.05078606388889115</v>
       </c>
       <c r="P8">
-        <v>0.04204777601064203</v>
+        <v>0.05078606388889115</v>
       </c>
       <c r="Q8">
-        <v>0.03439695325155556</v>
+        <v>0.02888651914488889</v>
       </c>
       <c r="R8">
-        <v>0.3095725792640001</v>
+        <v>0.259978672304</v>
       </c>
       <c r="S8">
-        <v>0.009882342362416514</v>
+        <v>0.01051478750922923</v>
       </c>
       <c r="T8">
-        <v>0.009882342362416516</v>
+        <v>0.01051478750922923</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>1.041014</v>
       </c>
       <c r="I9">
-        <v>0.2350265174527984</v>
+        <v>0.2070408041905609</v>
       </c>
       <c r="J9">
-        <v>0.2350265174527984</v>
+        <v>0.2070408041905609</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,10 +992,10 @@
         <v>1.374949</v>
       </c>
       <c r="O9">
-        <v>0.1944122847104549</v>
+        <v>0.2796082573516313</v>
       </c>
       <c r="P9">
-        <v>0.1944122847104549</v>
+        <v>0.2796082573516313</v>
       </c>
       <c r="Q9">
         <v>0.1590379064762222</v>
@@ -1004,10 +1004,10 @@
         <v>1.431341158286</v>
       </c>
       <c r="S9">
-        <v>0.04569204222554014</v>
+        <v>0.05789031846040306</v>
       </c>
       <c r="T9">
-        <v>0.04569204222554014</v>
+        <v>0.05789031846040305</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>1.041014</v>
       </c>
       <c r="I10">
-        <v>0.2350265174527984</v>
+        <v>0.2070408041905609</v>
       </c>
       <c r="J10">
-        <v>0.2350265174527984</v>
+        <v>0.2070408041905609</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.800003666666667</v>
+        <v>1.097575666666667</v>
       </c>
       <c r="N10">
-        <v>5.400011</v>
+        <v>3.292727</v>
       </c>
       <c r="O10">
-        <v>0.763539939278903</v>
+        <v>0.6696056787594775</v>
       </c>
       <c r="P10">
-        <v>0.7635399392789031</v>
+        <v>0.6696056787594775</v>
       </c>
       <c r="Q10">
-        <v>0.6246096723504445</v>
+        <v>0.3808638783531111</v>
       </c>
       <c r="R10">
-        <v>5.621487051154</v>
+        <v>3.427774905178</v>
       </c>
       <c r="S10">
-        <v>0.1794521328648417</v>
+        <v>0.1386356982209286</v>
       </c>
       <c r="T10">
-        <v>0.1794521328648417</v>
+        <v>0.1386356982209286</v>
       </c>
     </row>
   </sheetData>
